--- a/Experiment_results/xlsx_format/for_color_rus.xlsx
+++ b/Experiment_results/xlsx_format/for_color_rus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65210EE-808F-4D92-86A3-0F0BBF1D3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CDE93-DB36-4C5E-968A-56EBC4410115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">

--- a/Experiment_results/xlsx_format/for_color_rus.xlsx
+++ b/Experiment_results/xlsx_format/for_color_rus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CDE93-DB36-4C5E-968A-56EBC4410115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9C310-0225-411F-A11A-C6EA037FF1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34860" yWindow="4365" windowWidth="17250" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>GTT-Small (zero-shot)</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>наивный прогноз</t>
+  </si>
+  <si>
+    <t>TimeGPT (zero-shot)</t>
+  </si>
+  <si>
+    <t>TimeGPT (few-shot)</t>
+  </si>
+  <si>
+    <t>Lag-Llama (zero-shot)</t>
+  </si>
+  <si>
+    <t>с дообучением на 200 точках</t>
   </si>
 </sst>
 </file>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +540,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
